--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17088" windowHeight="3528" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="InValidLoginCredentials" sheetId="3" r:id="rId1"/>
     <sheet name="ValidLoginCredentials" sheetId="1" r:id="rId2"/>
     <sheet name="Registration" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,21 +78,6 @@
     <t>sai_test100@mailinator.com</t>
   </si>
   <si>
-    <t>sai_test90@mailinator.com</t>
-  </si>
-  <si>
-    <t>sai_test91@mailinator.com</t>
-  </si>
-  <si>
-    <t>sai_test92@mailinator.com</t>
-  </si>
-  <si>
-    <t>sai_test93@mailinator.com</t>
-  </si>
-  <si>
-    <t>sai_test94@mailinator.com</t>
-  </si>
-  <si>
     <t>abcd123</t>
   </si>
   <si>
@@ -132,6 +118,21 @@
   </si>
   <si>
     <t>ijjj123@hhdkdk.com</t>
+  </si>
+  <si>
+    <t>sai_test35@mailinator.com</t>
+  </si>
+  <si>
+    <t>sai_test36@mailinator.com</t>
+  </si>
+  <si>
+    <t>sai_test37@mailinator.com</t>
+  </si>
+  <si>
+    <t>sai_test38@mailinator.com</t>
+  </si>
+  <si>
+    <t>sai_test39@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -199,19 +200,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -493,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -513,58 +517,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -681,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -689,7 +693,7 @@
   <cols>
     <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -701,7 +705,7 @@
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
@@ -721,8 +725,8 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D2">
         <v>9874512395</v>
@@ -741,8 +745,8 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D3">
         <v>9874512495</v>
@@ -761,8 +765,8 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D4">
         <v>9870512395</v>
@@ -781,8 +785,8 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D5">
         <v>9874712395</v>
@@ -801,8 +805,8 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D6">
         <v>9874512195</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -120,19 +120,19 @@
     <t>ijjj123@hhdkdk.com</t>
   </si>
   <si>
-    <t>sai_test35@mailinator.com</t>
-  </si>
-  <si>
-    <t>sai_test36@mailinator.com</t>
-  </si>
-  <si>
-    <t>sai_test37@mailinator.com</t>
-  </si>
-  <si>
-    <t>sai_test38@mailinator.com</t>
-  </si>
-  <si>
-    <t>sai_test39@mailinator.com</t>
+    <t>sai_test40@mailinator.com</t>
+  </si>
+  <si>
+    <t>sai_test41@mailinator.com</t>
+  </si>
+  <si>
+    <t>sai_test42@mailinator.com</t>
+  </si>
+  <si>
+    <t>sai_test43@mailinator.com</t>
+  </si>
+  <si>
+    <t>sai_test44@mailinator.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17088" windowHeight="3528" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="3528" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="InValidLoginCredentials" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Username</t>
   </si>
@@ -120,19 +120,7 @@
     <t>ijjj123@hhdkdk.com</t>
   </si>
   <si>
-    <t>sai_test40@mailinator.com</t>
-  </si>
-  <si>
-    <t>sai_test41@mailinator.com</t>
-  </si>
-  <si>
-    <t>sai_test42@mailinator.com</t>
-  </si>
-  <si>
-    <t>sai_test43@mailinator.com</t>
-  </si>
-  <si>
-    <t>sai_test44@mailinator.com</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -200,22 +188,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -686,7 +671,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +710,7 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D2">
@@ -745,8 +730,8 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D3">
         <v>9874512495</v>
@@ -765,8 +750,8 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>34</v>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D4">
         <v>9870512395</v>
@@ -785,8 +770,8 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>35</v>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D5">
         <v>9874712395</v>
@@ -805,8 +790,8 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D6">
         <v>9874512195</v>
@@ -819,14 +804,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>